--- a/CVX_Kenya/Interventions/Biomass_ongrid.xlsx
+++ b/CVX_Kenya/Interventions/Biomass_ongrid.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\kenya_sut\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E191D2D-0CA9-4914-86FE-D3F5659A6845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A99E35-3892-431F-9C4A-45869B731638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="257">
   <si>
     <t>level_row</t>
   </si>
@@ -61,9 +61,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>Percentage</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -556,9 +553,6 @@
     <t>Tariff on ROW</t>
   </si>
   <si>
-    <t>Inputs</t>
-  </si>
-  <si>
     <t>Lagenda</t>
   </si>
   <si>
@@ -577,36 +571,15 @@
     <t>Assumptions</t>
   </si>
   <si>
-    <t>Calculated</t>
-  </si>
-  <si>
     <t>Modeled</t>
   </si>
   <si>
-    <t>Productivity increase</t>
-  </si>
-  <si>
     <t>kSh</t>
   </si>
   <si>
     <t>Efficiency of the machine</t>
   </si>
   <si>
-    <t>Hours of working of each machine</t>
-  </si>
-  <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>Primary energy required by each machine</t>
-  </si>
-  <si>
-    <t>kWh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase in use of Petroleum </t>
-  </si>
-  <si>
     <t>Heating value petroleum</t>
   </si>
   <si>
@@ -637,9 +610,6 @@
     <t>MSh</t>
   </si>
   <si>
-    <t>Z***</t>
-  </si>
-  <si>
     <t>*** We have to aslo define a shock on the supply-use matrix directly for the options which had a zero initial value like petroleum!</t>
   </si>
   <si>
@@ -664,15 +634,6 @@
     <t>Functional Unit</t>
   </si>
   <si>
-    <t>Maximum number of machines</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>WFN: Total water footprint (Mm3/yr) - Green</t>
-  </si>
-  <si>
     <t>MW</t>
   </si>
   <si>
@@ -836,6 +797,18 @@
   </si>
   <si>
     <t>https://www.engineeringtoolbox.com/fuels-higher-calorific-values-d_169.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease in use of Petroleum </t>
+  </si>
+  <si>
+    <t>Public electricity and heat production</t>
+  </si>
+  <si>
+    <t>Decrease in the use of Fertilzers N</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -976,7 +949,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1030,22 +1003,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1112,12 +1076,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1126,6 +1084,16 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1135,16 +1103,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1466,7 +1425,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1489,7 +1448,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1497,17 +1456,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>7</v>
+        <v>191</v>
       </c>
       <c r="E2" s="33">
-        <f>main!C38</f>
-        <v>918</v>
+        <f>main!C35</f>
+        <v>-54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1553,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1561,24 +1520,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1">
-        <f>main!C35</f>
+        <f>main!C31</f>
         <v>5421.3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="1" t="e">
-        <f>main!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -1611,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1647,10 +1598,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1658,26 +1609,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="e">
-        <f>-main!#REF!</f>
-        <v>#REF!</v>
+        <v>191</v>
+      </c>
+      <c r="G2" s="5">
+        <f>main!C32</f>
+        <v>-2053.375196232339</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1685,26 +1636,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G3" s="5">
-        <f>main!C36</f>
-        <v>2053.375196232339</v>
+        <v>191</v>
+      </c>
+      <c r="G3" s="43">
+        <f>main!C33</f>
+        <v>-1275.5999999999999</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1717,14 +1668,9 @@
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 B4:B6" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5 D4:D5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"commodity,activities"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0200-000001000000}">
@@ -1743,13 +1689,13 @@
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
-          <xm:sqref>C3 E2</xm:sqref>
+          <xm:sqref>C2:C3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
-          <xm:sqref>E3 C2</xm:sqref>
+          <xm:sqref>E2:E3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1762,7 +1708,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1789,10 +1735,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1803,20 +1749,20 @@
         <v>166</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F2" s="33">
-        <f>main!C37</f>
+        <f>main!C34</f>
         <v>216.852</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1879,212 +1825,212 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -2095,423 +2041,423 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2521,10 +2467,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2540,666 +2486,635 @@
   <sheetData>
     <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="36">
-        <f>C6/0.45/10/200*10^6</f>
-        <v>88888.888888888891</v>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="47"/>
+      <c r="B2" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="24">
+        <v>10000</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F2" s="18"/>
-      <c r="G2" s="18" t="s">
-        <v>237</v>
-      </c>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="24">
-        <v>10000</v>
+        <v>203</v>
+      </c>
+      <c r="C3" s="41">
+        <v>0</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="G3" s="18" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="48">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="C4" s="24">
+        <v>500</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F4" s="18"/>
-      <c r="G4" s="18" t="s">
-        <v>219</v>
-      </c>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="17" t="s">
-        <v>217</v>
+      <c r="A5" s="47"/>
+      <c r="B5" s="37" t="s">
+        <v>251</v>
       </c>
       <c r="C5" s="24">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="G5" s="18" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" s="24">
-        <v>80</v>
+      <c r="A6" s="47"/>
+      <c r="B6" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="40">
+        <v>0.27</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="F6" s="18"/>
-      <c r="G6" s="18" t="s">
-        <v>262</v>
+      <c r="G6" s="38" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="C7" s="47">
-        <f>C6*C8/C9</f>
-        <v>54</v>
+      <c r="A7" s="47"/>
+      <c r="B7" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0.4</v>
       </c>
       <c r="D7" s="24"/>
-      <c r="E7" s="24" t="s">
-        <v>261</v>
-      </c>
+      <c r="E7" s="24"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="C8" s="47">
-        <v>0.27</v>
+      <c r="A8" s="47"/>
+      <c r="B8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="24">
+        <v>106.3</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="F8" s="18"/>
-      <c r="G8" s="40" t="s">
-        <v>259</v>
-      </c>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="17" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="C9" s="24">
-        <v>0.4</v>
+        <v>39</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="E9" s="24" t="s">
+        <v>181</v>
+      </c>
       <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="17" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="C10" s="24">
-        <v>106.3</v>
+        <v>0.98</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="G10" s="18" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="36">
-        <f>C3*C24*C27*C10/(10^6)</f>
-        <v>4517.75</v>
-      </c>
-      <c r="D11" s="24"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0.109</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>196</v>
+      </c>
       <c r="E11" s="24" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
-      <c r="B12" s="39" t="s">
-        <v>223</v>
+      <c r="A12" s="47"/>
+      <c r="B12" s="17" t="s">
+        <v>214</v>
       </c>
       <c r="C12" s="24">
-        <f>C4*C25*C27*C10/(10^6)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="36">
-        <f>C5*C26*C27*1000*C10/(10^6)</f>
-        <v>903.55</v>
+      <c r="A13" s="47"/>
+      <c r="B13" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0.3</v>
       </c>
       <c r="D13" s="24"/>
-      <c r="E13" s="24" t="s">
-        <v>198</v>
-      </c>
+      <c r="E13" s="24"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="G13" s="18" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="24">
-        <v>39</v>
+        <v>227</v>
+      </c>
+      <c r="C14" s="41">
+        <v>0</v>
       </c>
       <c r="D14" s="24"/>
-      <c r="E14" s="24" t="s">
-        <v>190</v>
-      </c>
+      <c r="E14" s="24"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="18" t="s">
-        <v>265</v>
-      </c>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="17" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="C15" s="24">
-        <v>0.98</v>
+        <f>C19*(C43+C44+C45)*12/(10^6)</f>
+        <v>35.700000000000003</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="18" t="s">
-        <v>265</v>
+      <c r="G15" s="38" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="17" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="C16" s="24">
-        <v>0.109</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>206</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D16" s="24"/>
       <c r="E16" s="24" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17" s="24">
-        <v>25</v>
-      </c>
-      <c r="D17" s="24"/>
+        <v>230</v>
+      </c>
+      <c r="C17" s="35">
+        <v>250000</v>
+      </c>
+      <c r="D17" s="18"/>
       <c r="E17" s="24" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="C18" s="36">
-        <f>C2*C19</f>
-        <v>26666.666666666668</v>
+        <v>231</v>
+      </c>
+      <c r="C18" s="24">
+        <v>1</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="17" t="s">
-        <v>235</v>
+      <c r="A19" s="36"/>
+      <c r="B19" s="30" t="s">
+        <v>228</v>
       </c>
       <c r="C19" s="24">
+        <v>17</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="25">
         <v>0.3</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="C20" s="36">
-        <f>450*C10/1000</f>
-        <v>47.835000000000001</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="40" t="s">
-        <v>256</v>
-      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="46"/>
-      <c r="B21" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="36">
-        <f>C20*C18/1000</f>
+      <c r="B21" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="39">
+        <v>0.3</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="45"/>
+      <c r="B22" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="27">
+        <f>C2*C16*C19*C8/(10^6)</f>
+        <v>4517.75</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="45"/>
+      <c r="B23" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="27">
+        <f>C3*C17*C19*C8/(10^6)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="45"/>
+      <c r="B24" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="27">
+        <f>C4*C18*C19*1000*C8/(10^6)</f>
+        <v>903.55</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="45"/>
+      <c r="B25" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="32">
+        <f>C28*C13</f>
+        <v>26666.666666666668</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="45"/>
+      <c r="B26" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="27">
+        <f>450*C8/1000</f>
+        <v>47.835000000000001</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="45"/>
+      <c r="B27" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="27">
+        <f>C26*C25/1000</f>
         <v>1275.5999999999999</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C22" s="48">
-        <v>0</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C23" s="24">
-        <f>C27*(C46+C47+C48)*12/(10^6)</f>
-        <v>35.700000000000003</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="40" t="s">
+      <c r="D27" s="27"/>
+      <c r="E27" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="45"/>
+      <c r="B28" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="32">
+        <f>C5/0.45/10/200*10^6</f>
+        <v>88888.888888888891</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="45"/>
+      <c r="B29" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" s="32">
+        <f>C5*C6/C7</f>
+        <v>54</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
-      <c r="B24" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="C24" s="24">
-        <v>250</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C25" s="35">
-        <v>250000</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
-      <c r="B26" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C26" s="24">
-        <v>1</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="C27" s="24">
-        <v>17</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C29" s="41">
-        <v>0.3</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="43" t="s">
-        <v>179</v>
-      </c>
+      <c r="A30" s="45"/>
       <c r="B30" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="27"/>
+        <v>253</v>
+      </c>
+      <c r="C30" s="32">
+        <f>C5/C7*1000*3600/C9/C10*C11/1000</f>
+        <v>2053.375196232339</v>
+      </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
+      <c r="A31" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="34">
+        <f>SUM(C22:C24)</f>
+        <v>5421.3</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="34">
+        <f>-C30</f>
+        <v>-2053.375196232339</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="43"/>
-      <c r="B33" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27" t="s">
+      <c r="A33" s="44"/>
+      <c r="B33" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33" s="34">
+        <f>-C27</f>
+        <v>-1275.5999999999999</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="44"/>
+      <c r="B34" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" s="31">
+        <f>C31/C12</f>
+        <v>216.852</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F34" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
-      <c r="B34" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="42" t="s">
-        <v>180</v>
-      </c>
+      <c r="A35" s="44"/>
       <c r="B35" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="C35" s="34">
-        <f>SUM(C11:C13)</f>
-        <v>5421.3</v>
+        <v>213</v>
+      </c>
+      <c r="C35" s="42">
+        <f>-C29</f>
+        <v>-54</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="26" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G35" s="20"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="C36" s="34">
-        <f>C6/C9*1000*3600/C14/C15*C16/1000</f>
-        <v>2053.375196232339</v>
-      </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C37" s="31">
-        <f>C35/C17</f>
-        <v>216.852</v>
-      </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="G37" s="20"/>
-    </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C38" s="37">
-        <f>C7*C27/C26</f>
-        <v>918</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="F38" s="20" t="s">
+      <c r="B38" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="10" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A41">
         <f>59/90</f>
         <v>0.65555555555555556</v>
       </c>
     </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44">
+        <v>50000</v>
+      </c>
+    </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="C45" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C46">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C47">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48">
+      <c r="B45" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C45">
         <v>50000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G23" r:id="rId1" xr:uid="{84C6F64B-1945-4EBA-8B1B-CEE00995A49C}"/>
-    <hyperlink ref="G20" r:id="rId2" location="tab-id-3" xr:uid="{5DAE99B1-6F95-4D10-BA19-123AB017C754}"/>
-    <hyperlink ref="G8" r:id="rId3" xr:uid="{5E1D2F9F-64EB-463B-84ED-7D3426C5B2DD}"/>
+    <hyperlink ref="G15" r:id="rId1" xr:uid="{84C6F64B-1945-4EBA-8B1B-CEE00995A49C}"/>
+    <hyperlink ref="G26" r:id="rId2" location="tab-id-3" xr:uid="{5DAE99B1-6F95-4D10-BA19-123AB017C754}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{5E1D2F9F-64EB-463B-84ED-7D3426C5B2DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/CVX_Kenya/Interventions/Biomass_ongrid.xlsx
+++ b/CVX_Kenya/Interventions/Biomass_ongrid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A99E35-3892-431F-9C4A-45869B731638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6310E5E7-FC8C-4981-93D2-308607DA2608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="260">
   <si>
     <t>level_row</t>
   </si>
@@ -577,9 +577,6 @@
     <t>kSh</t>
   </si>
   <si>
-    <t>Efficiency of the machine</t>
-  </si>
-  <si>
     <t>Heating value petroleum</t>
   </si>
   <si>
@@ -721,9 +718,6 @@
     <t>Value of avoided fertilizer N</t>
   </si>
   <si>
-    <t>Transport increase</t>
-  </si>
-  <si>
     <t>Number of GenSets</t>
   </si>
   <si>
@@ -802,19 +796,37 @@
     <t xml:space="preserve">Decrease in use of Petroleum </t>
   </si>
   <si>
-    <t>Public electricity and heat production</t>
-  </si>
-  <si>
     <t>Decrease in the use of Fertilzers N</t>
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Electricity and Heat</t>
+  </si>
+  <si>
+    <t>Public electricity and heat production CO2 emissions</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>JRC SAM + EORA @2014 (own elaboration)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1009,7 +1021,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1076,9 +1088,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1087,13 +1096,13 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1106,6 +1115,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1425,7 +1441,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1434,7 +1450,8 @@
     <col min="2" max="2" width="38.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1456,17 +1473,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
         <v>122</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="E2" s="33">
         <f>main!C35</f>
-        <v>-54</v>
+        <v>-2.5592417061611375E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1601,7 +1618,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1621,14 +1638,14 @@
         <v>122</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G2" s="5">
         <f>main!C32</f>
         <v>-2053.375196232339</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1648,14 +1665,14 @@
         <v>91</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="G3" s="43">
+        <v>190</v>
+      </c>
+      <c r="G3" s="40">
         <f>main!C33</f>
-        <v>-1275.5999999999999</v>
+        <v>-1417.3333333333333</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1738,7 +1755,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1755,14 +1772,14 @@
         <v>122</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F2" s="33">
         <f>main!C34</f>
         <v>216.852</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2469,8 +2486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2495,7 +2512,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>173</v>
@@ -2508,212 +2525,218 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="24">
         <v>10000</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="41">
+        <v>202</v>
+      </c>
+      <c r="C3" s="48">
+        <f>C20</f>
         <v>0</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="24">
         <v>500</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="37" t="s">
-        <v>251</v>
+      <c r="A5" s="46"/>
+      <c r="B5" s="36" t="s">
+        <v>249</v>
       </c>
       <c r="C5" s="24">
         <v>80</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="40">
+      <c r="A6" s="46"/>
+      <c r="B6" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="39">
+        <f>0.27</f>
         <v>0.27</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F6" s="18"/>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="37" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+      <c r="B7" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="39">
+        <v>2110</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
-      <c r="B7" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="24">
+      <c r="F7" s="18"/>
+      <c r="G7" s="49" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="46"/>
+      <c r="B8" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="24">
         <v>0.4</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
-      <c r="B8" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="24">
-        <v>106.3</v>
-      </c>
       <c r="D8" s="24"/>
-      <c r="E8" s="24" t="s">
-        <v>212</v>
-      </c>
+      <c r="E8" s="24"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="17" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="C9" s="24">
-        <v>39</v>
+        <v>106.3</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="F9" s="18"/>
-      <c r="G9" s="18" t="s">
-        <v>252</v>
-      </c>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C10" s="24">
-        <v>0.98</v>
+        <v>39</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C11" s="24">
-        <v>0.109</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>196</v>
-      </c>
+        <v>0.98</v>
+      </c>
+      <c r="D11" s="24"/>
       <c r="E11" s="24" t="s">
         <v>184</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="G11" s="18" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="17" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="C12" s="24">
-        <v>25</v>
-      </c>
-      <c r="D12" s="24"/>
+        <v>0.109</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>195</v>
+      </c>
       <c r="E12" s="24" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="17" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C13" s="24">
+        <v>25</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="46"/>
+      <c r="B14" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="24">
         <v>0.3</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="C14" s="41">
-        <v>0</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="G14" s="18" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C15" s="24">
         <f>C19*(C43+C44+C45)*12/(10^6)</f>
@@ -2721,94 +2744,98 @@
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="38" t="s">
-        <v>235</v>
+      <c r="G15" s="37" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C16" s="24">
         <v>250</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C17" s="35">
         <v>250000</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C18" s="24">
         <v>1</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
+      <c r="A19" s="41" t="s">
+        <v>254</v>
+      </c>
       <c r="B19" s="30" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C19" s="24">
         <v>17</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="45" t="s">
         <v>176</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="25">
-        <v>0.3</v>
+        <v>202</v>
+      </c>
+      <c r="C20" s="42">
+        <v>0</v>
       </c>
       <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="E20" s="25" t="s">
+        <v>200</v>
+      </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="C21" s="39">
+        <v>240</v>
+      </c>
+      <c r="C21" s="38">
         <v>0.3</v>
       </c>
       <c r="D21" s="25"/>
@@ -2817,107 +2844,107 @@
       <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" s="27">
-        <f>C2*C16*C19*C8/(10^6)</f>
+        <f>C2*C16*C19*C9/(10^6)</f>
         <v>4517.75</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C23" s="27">
-        <f>C3*C17*C19*C8/(10^6)</f>
+        <f>C20*C17*C19*C9/(10^6)</f>
         <v>0</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="45"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C24" s="27">
-        <f>C4*C18*C19*1000*C8/(10^6)</f>
+        <f>C4*C18*C19*1000*C9/(10^6)</f>
         <v>903.55</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C25" s="32">
-        <f>C28*C13</f>
+        <f>C28*C14</f>
         <v>26666.666666666668</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C26" s="27">
-        <f>450*C8/1000</f>
-        <v>47.835000000000001</v>
+        <f>500*C9/1000</f>
+        <v>53.15</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C27" s="27">
         <f>C26*C25/1000</f>
-        <v>1275.5999999999999</v>
+        <v>1417.3333333333333</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C28" s="32">
         <f>C5/0.45/10/200*10^6</f>
@@ -2925,36 +2952,36 @@
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C29" s="32">
-        <f>C5*C6/C7</f>
+        <f>C5*C6/C8</f>
         <v>54</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C30" s="32">
-        <f>C5/C7*1000*3600/C9/C10*C11/1000</f>
+        <f>C5/C8*1000*3600/C10/C11*C12/1000</f>
         <v>2053.375196232339</v>
       </c>
       <c r="D30" s="27"/>
@@ -2965,11 +2992,11 @@
       <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="43" t="s">
         <v>177</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C31" s="34">
         <f>SUM(C22:C24)</f>
@@ -2977,17 +3004,17 @@
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C32" s="34">
         <f>-C30</f>
@@ -2995,75 +3022,75 @@
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C33" s="34">
         <f>-C27</f>
-        <v>-1275.5999999999999</v>
+        <v>-1417.3333333333333</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C34" s="31">
-        <f>C31/C12</f>
+        <f>C31/C13</f>
         <v>216.852</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="42">
-        <f>-C29</f>
-        <v>-54</v>
+        <v>212</v>
+      </c>
+      <c r="C35" s="47">
+        <f>-C29/C7</f>
+        <v>-2.5592417061611375E-2</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="26" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G35" s="20"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -3074,15 +3101,15 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" s="28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C43">
         <v>75000</v>
@@ -3090,7 +3117,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C44">
         <v>50000</v>
@@ -3098,7 +3125,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C45">
         <v>50000</v>

--- a/CVX_Kenya/Interventions/Biomass_ongrid.xlsx
+++ b/CVX_Kenya/Interventions/Biomass_ongrid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6310E5E7-FC8C-4981-93D2-308607DA2608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DB64B7-8065-438A-9F15-EA21B809CA84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="555" yWindow="-10305" windowWidth="11070" windowHeight="5730" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -917,7 +917,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -957,6 +957,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,7 +1027,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1072,7 +1078,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1103,6 +1108,13 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1115,13 +1127,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1481,7 +1491,7 @@
       <c r="D2" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="32">
         <f>main!C35</f>
         <v>-2.5592417061611375E-2</v>
       </c>
@@ -1667,7 +1677,7 @@
       <c r="F3" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="39">
         <f>main!C33</f>
         <v>-1417.3333333333333</v>
       </c>
@@ -1774,7 +1784,7 @@
       <c r="E2" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="32">
         <f>main!C34</f>
         <v>216.852</v>
       </c>
@@ -2486,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2525,7 +2535,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="17" t="s">
         <v>201</v>
       </c>
@@ -2540,11 +2550,11 @@
       <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="43">
         <f>C20</f>
         <v>0</v>
       </c>
@@ -2558,7 +2568,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="17" t="s">
         <v>203</v>
       </c>
@@ -2573,8 +2583,8 @@
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="36" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="35" t="s">
         <v>249</v>
       </c>
       <c r="C5" s="24">
@@ -2590,11 +2600,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="38">
         <f>0.27</f>
         <v>0.27</v>
       </c>
@@ -2603,16 +2613,16 @@
         <v>243</v>
       </c>
       <c r="F6" s="18"/>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="36" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="38">
         <v>2110</v>
       </c>
       <c r="D7" s="24"/>
@@ -2620,12 +2630,12 @@
         <v>246</v>
       </c>
       <c r="F7" s="18"/>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="44" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="17" t="s">
         <v>207</v>
       </c>
@@ -2638,7 +2648,7 @@
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="17" t="s">
         <v>210</v>
       </c>
@@ -2653,7 +2663,7 @@
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="17" t="s">
         <v>179</v>
       </c>
@@ -2670,7 +2680,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="17" t="s">
         <v>181</v>
       </c>
@@ -2687,7 +2697,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="17" t="s">
         <v>182</v>
       </c>
@@ -2704,7 +2714,7 @@
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="17" t="s">
         <v>213</v>
       </c>
@@ -2719,7 +2729,7 @@
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="17" t="s">
         <v>221</v>
       </c>
@@ -2734,7 +2744,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="17" t="s">
         <v>234</v>
       </c>
@@ -2747,12 +2757,12 @@
         <v>188</v>
       </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="36" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="17" t="s">
         <v>230</v>
       </c>
@@ -2767,11 +2777,11 @@
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="34">
         <v>250000</v>
       </c>
       <c r="D17" s="18"/>
@@ -2782,7 +2792,7 @@
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="17" t="s">
         <v>229</v>
       </c>
@@ -2797,30 +2807,30 @@
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="50">
         <v>17</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24" t="s">
+      <c r="D19" s="50"/>
+      <c r="E19" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="47" t="s">
         <v>176</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="41">
         <v>0</v>
       </c>
       <c r="D20" s="25"/>
@@ -2831,11 +2841,11 @@
       <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="37">
         <v>0.3</v>
       </c>
       <c r="D21" s="25"/>
@@ -2844,7 +2854,7 @@
       <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="29" t="s">
         <v>198</v>
       </c>
@@ -2860,7 +2870,7 @@
       <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="29" t="s">
         <v>209</v>
       </c>
@@ -2876,7 +2886,7 @@
       <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="29" t="s">
         <v>199</v>
       </c>
@@ -2892,11 +2902,11 @@
       <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="31">
         <f>C28*C14</f>
         <v>26666.666666666668</v>
       </c>
@@ -2908,7 +2918,7 @@
       <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="29" t="s">
         <v>224</v>
       </c>
@@ -2926,7 +2936,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="29" t="s">
         <v>225</v>
       </c>
@@ -2942,11 +2952,11 @@
       <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="31">
         <f>C5/0.45/10/200*10^6</f>
         <v>88888.888888888891</v>
       </c>
@@ -2960,11 +2970,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="31">
         <f>C5*C6/C8</f>
         <v>54</v>
       </c>
@@ -2976,11 +2986,11 @@
       <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="31">
         <f>C5/C8*1000*3600/C10/C11*C12/1000</f>
         <v>2053.375196232339</v>
       </c>
@@ -2992,13 +3002,13 @@
       <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="45" t="s">
         <v>177</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="33">
         <f>SUM(C22:C24)</f>
         <v>5421.3</v>
       </c>
@@ -3012,11 +3022,11 @@
       <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="33">
         <f>-C30</f>
         <v>-2053.375196232339</v>
       </c>
@@ -3030,11 +3040,11 @@
       <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="43"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="33">
         <f>-C27</f>
         <v>-1417.3333333333333</v>
       </c>
@@ -3048,11 +3058,11 @@
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="30">
         <f>C31/C13</f>
         <v>216.852</v>
       </c>
@@ -3066,11 +3076,11 @@
       <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="C35" s="47">
+      <c r="C35" s="42">
         <f>-C29/C7</f>
         <v>-2.5592417061611375E-2</v>
       </c>

--- a/CVX_Kenya/Interventions/Biomass_ongrid.xlsx
+++ b/CVX_Kenya/Interventions/Biomass_ongrid.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DB64B7-8065-438A-9F15-EA21B809CA84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6CFE86-547E-4CD5-96D8-8FAC0DAC63CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="-10305" windowWidth="11070" windowHeight="5730" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
     <sheet name="Y" sheetId="1" r:id="rId2"/>
     <sheet name="Z" sheetId="4" r:id="rId3"/>
     <sheet name="VA" sheetId="5" r:id="rId4"/>
-    <sheet name="Indeces" sheetId="8" r:id="rId5"/>
-    <sheet name="main" sheetId="9" r:id="rId6"/>
+    <sheet name="UL" sheetId="10" r:id="rId5"/>
+    <sheet name="Indeces" sheetId="8" r:id="rId6"/>
+    <sheet name="main" sheetId="9" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="265">
   <si>
     <t>level_row</t>
   </si>
@@ -625,9 +629,6 @@
     <t>Sensitivity</t>
   </si>
   <si>
-    <t>0.107-0.112</t>
-  </si>
-  <si>
     <t>Functional Unit</t>
   </si>
   <si>
@@ -818,6 +819,24 @@
   </si>
   <si>
     <t>JRC SAM + EORA @2014 (own elaboration)</t>
+  </si>
+  <si>
+    <t>Sensistivity</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Useful life</t>
+  </si>
+  <si>
+    <t>0.107-0.112,0.001</t>
   </si>
 </sst>
 </file>
@@ -1115,6 +1134,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1127,11 +1151,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1149,6 +1168,37 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="S"/>
+      <sheetName val="Y"/>
+      <sheetName val="Z"/>
+      <sheetName val="VA"/>
+      <sheetName val="UL"/>
+      <sheetName val="Indeces"/>
+      <sheetName val="main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="16">
+          <cell r="C16">
+            <v>10</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1454,17 +1504,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="38.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1478,34 +1528,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C2" t="s">
         <v>122</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E2" s="32">
         <f>main!C35</f>
         <v>-2.5592417061611375E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1520,29 +1570,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1553,21 +1616,24 @@
         <f>main!C31</f>
         <v>5421.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1589,26 +1655,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1630,8 +1696,20 @@
       <c r="H1" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1657,8 +1735,11 @@
       <c r="H2" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1684,13 +1765,16 @@
       <c r="H3" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
@@ -1732,23 +1816,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1767,8 +1853,20 @@
       <c r="G1" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1791,17 +1889,20 @@
       <c r="G2" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1836,6 +1937,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32A7679-78E3-4A5A-B75B-A68C7605FF81}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2">
+        <f>[1]main!C16</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D72"/>
   <sheetViews>
@@ -1843,14 +1976,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1862,7 +1995,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1873,7 +2006,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1884,7 +2017,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1895,7 +2028,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1906,7 +2039,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1917,7 +2050,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1928,7 +2061,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1939,7 +2072,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1950,7 +2083,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1961,7 +2094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1972,7 +2105,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1983,7 +2116,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1994,7 +2127,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2005,7 +2138,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2016,7 +2149,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2027,7 +2160,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2038,7 +2171,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2049,7 +2182,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2060,7 +2193,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2071,7 +2204,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2082,7 +2215,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2093,7 +2226,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2104,7 +2237,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2115,7 +2248,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2126,7 +2259,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2137,7 +2270,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2148,7 +2281,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2159,7 +2292,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2170,7 +2303,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2181,7 +2314,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2192,7 +2325,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2203,7 +2336,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2214,7 +2347,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2225,7 +2358,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2236,7 +2369,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -2247,7 +2380,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -2258,7 +2391,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -2266,7 +2399,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -2274,7 +2407,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -2282,7 +2415,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -2290,7 +2423,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -2298,7 +2431,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -2306,7 +2439,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -2314,7 +2447,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -2322,7 +2455,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -2330,7 +2463,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -2338,7 +2471,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -2346,7 +2479,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -2354,7 +2487,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -2362,7 +2495,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -2370,7 +2503,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -2378,7 +2511,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -2386,7 +2519,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -2394,7 +2527,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -2402,87 +2535,87 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -2492,26 +2625,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
-    <col min="2" max="2" width="62.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>171</v>
       </c>
@@ -2534,25 +2667,25 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
       <c r="B2" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="24">
         <v>10000</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
       <c r="B3" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" s="43">
         <f>C20</f>
@@ -2560,49 +2693,49 @@
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
       <c r="B4" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="24">
         <v>500</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
       <c r="B5" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C5" s="24">
         <v>80</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
       <c r="B6" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" s="38">
         <f>0.27</f>
@@ -2610,34 +2743,34 @@
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="36" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
       <c r="B7" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C7" s="38">
         <v>2110</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="44" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
       <c r="B8" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C8" s="24">
         <v>0.4</v>
@@ -2647,23 +2780,23 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
       <c r="B9" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C9" s="24">
         <v>106.3</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
       <c r="B10" s="17" t="s">
         <v>179</v>
       </c>
@@ -2676,11 +2809,11 @@
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
       <c r="B11" s="17" t="s">
         <v>181</v>
       </c>
@@ -2693,11 +2826,11 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
       <c r="B12" s="17" t="s">
         <v>182</v>
       </c>
@@ -2705,7 +2838,7 @@
         <v>0.109</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>183</v>
@@ -2713,25 +2846,25 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
       <c r="B13" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C13" s="24">
         <v>25</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
       <c r="B14" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="24">
         <v>0.3</v>
@@ -2740,13 +2873,13 @@
       <c r="E14" s="24"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
       <c r="B15" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C15" s="24">
         <f>C19*(C43+C44+C45)*12/(10^6)</f>
@@ -2758,92 +2891,92 @@
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="36" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
       <c r="B16" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C16" s="24">
         <v>250</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
       <c r="B17" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C17" s="34">
         <v>250000</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
       <c r="B18" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C18" s="24">
         <v>1</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="B19" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="46">
+        <v>17</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="C19" s="50">
-        <v>17</v>
-      </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
         <v>176</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C20" s="41">
         <v>0</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="50"/>
       <c r="B21" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C21" s="37">
         <v>0.3</v>
@@ -2853,10 +2986,10 @@
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="49"/>
       <c r="B22" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C22" s="27">
         <f>C2*C16*C19*C9/(10^6)</f>
@@ -2869,10 +3002,10 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="49"/>
       <c r="B23" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C23" s="27">
         <f>C20*C17*C19*C9/(10^6)</f>
@@ -2885,10 +3018,10 @@
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="49"/>
       <c r="B24" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C24" s="27">
         <f>C4*C18*C19*1000*C9/(10^6)</f>
@@ -2901,10 +3034,10 @@
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="49"/>
       <c r="B25" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C25" s="31">
         <f>C28*C14</f>
@@ -2912,15 +3045,15 @@
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="49"/>
       <c r="B26" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C26" s="27">
         <f>500*C9/1000</f>
@@ -2928,17 +3061,17 @@
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="23" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="49"/>
       <c r="B27" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C27" s="27">
         <f>C26*C25/1000</f>
@@ -2951,10 +3084,10 @@
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="49"/>
       <c r="B28" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C28" s="31">
         <f>C5/0.45/10/200*10^6</f>
@@ -2962,17 +3095,17 @@
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="49"/>
       <c r="B29" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C29" s="31">
         <f>C5*C6/C8</f>
@@ -2980,15 +3113,15 @@
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="49"/>
       <c r="B30" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C30" s="31">
         <f>C5/C8*1000*3600/C10/C11*C12/1000</f>
@@ -3001,12 +3134,12 @@
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="45" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
         <v>177</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C31" s="33">
         <f>SUM(C22:C24)</f>
@@ -3021,10 +3154,10 @@
       </c>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="48"/>
       <c r="B32" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C32" s="33">
         <f>-C30</f>
@@ -3035,14 +3168,14 @@
         <v>188</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G32" s="20"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="48"/>
       <c r="B33" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C33" s="33">
         <f>-C27</f>
@@ -3053,14 +3186,14 @@
         <v>188</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G33" s="20"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="48"/>
       <c r="B34" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C34" s="30">
         <f>C31/C13</f>
@@ -3075,10 +3208,10 @@
       </c>
       <c r="G34" s="20"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="48"/>
       <c r="B35" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C35" s="42">
         <f>-C29/C7</f>
@@ -3086,56 +3219,56 @@
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F35" s="20" t="s">
         <v>187</v>
       </c>
       <c r="G35" s="20"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="28" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>59/90</f>
         <v>0.65555555555555556</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C42" t="s">
         <v>235</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="C43">
         <v>75000</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C44">
         <v>50000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C45">
         <v>50000</v>

--- a/CVX_Kenya/Interventions/Biomass_ongrid.xlsx
+++ b/CVX_Kenya/Interventions/Biomass_ongrid.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6CFE86-547E-4CD5-96D8-8FAC0DAC63CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81FD5D9-F894-46B7-BC4A-2D4A02E03CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="266">
   <si>
     <t>level_row</t>
   </si>
@@ -837,6 +837,9 @@
   </si>
   <si>
     <t>0.107-0.112,0.001</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1504,17 +1507,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="38.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1528,7 +1531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1546,16 +1549,16 @@
         <v>-2.5592417061611375E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1576,16 +1579,16 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1605,7 +1608,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1620,20 +1623,20 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1657,24 +1660,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1709,7 +1712,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1730,16 +1733,26 @@
       </c>
       <c r="G2" s="5">
         <f>main!C32</f>
-        <v>-2053.375196232339</v>
+        <v>-2072.2135007849292</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>192</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-2015.6985871271584</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-1883.8304552590266</v>
+      </c>
+      <c r="L2" s="1">
+        <f>(K2-J2)/5</f>
+        <v>26.373626373626347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1769,12 +1782,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
@@ -1822,19 +1835,19 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="8" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1866,7 +1879,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1893,16 +1906,16 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1944,17 +1957,17 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>263</v>
       </c>
@@ -1976,14 +1989,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1995,7 +2008,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2006,7 +2019,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2017,7 +2030,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2028,7 +2041,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2039,7 +2052,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2050,7 +2063,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2061,7 +2074,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2072,7 +2085,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2083,7 +2096,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2094,7 +2107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2105,7 +2118,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2116,7 +2129,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2127,7 +2140,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2138,7 +2151,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2149,7 +2162,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2160,7 +2173,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2171,7 +2184,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2182,7 +2195,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2193,7 +2206,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2204,7 +2217,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2215,7 +2228,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2226,7 +2239,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2237,7 +2250,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2248,7 +2261,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2259,7 +2272,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2270,7 +2283,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2281,7 +2294,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2292,7 +2305,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2303,7 +2316,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2314,7 +2327,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2325,7 +2338,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2336,7 +2349,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2347,7 +2360,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2358,7 +2371,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2369,7 +2382,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -2380,7 +2393,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -2391,7 +2404,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -2399,7 +2412,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -2407,7 +2420,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -2415,7 +2428,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -2423,7 +2436,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -2431,7 +2444,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -2439,7 +2452,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -2447,7 +2460,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -2455,7 +2468,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -2463,7 +2476,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -2471,7 +2484,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -2479,7 +2492,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -2487,7 +2500,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -2495,7 +2508,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -2503,7 +2516,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -2511,7 +2524,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -2519,7 +2532,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -2527,7 +2540,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -2535,87 +2548,87 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -2630,21 +2643,21 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>171</v>
       </c>
@@ -2667,7 +2680,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
       <c r="B2" s="17" t="s">
         <v>200</v>
@@ -2682,7 +2695,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="51"/>
       <c r="B3" s="17" t="s">
         <v>201</v>
@@ -2700,7 +2713,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="51"/>
       <c r="B4" s="17" t="s">
         <v>202</v>
@@ -2715,7 +2728,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="51"/>
       <c r="B5" s="35" t="s">
         <v>248</v>
@@ -2732,7 +2745,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
       <c r="B6" s="35" t="s">
         <v>241</v>
@@ -2750,7 +2763,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="51"/>
       <c r="B7" s="35" t="s">
         <v>256</v>
@@ -2767,7 +2780,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="51"/>
       <c r="B8" s="17" t="s">
         <v>206</v>
@@ -2780,7 +2793,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="51"/>
       <c r="B9" s="17" t="s">
         <v>209</v>
@@ -2795,7 +2808,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="51"/>
       <c r="B10" s="17" t="s">
         <v>179</v>
@@ -2812,7 +2825,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="51"/>
       <c r="B11" s="17" t="s">
         <v>181</v>
@@ -2829,13 +2842,13 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="51"/>
       <c r="B12" s="17" t="s">
         <v>182</v>
       </c>
       <c r="C12" s="24">
-        <v>0.109</v>
+        <v>0.11</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>264</v>
@@ -2846,7 +2859,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="51"/>
       <c r="B13" s="17" t="s">
         <v>212</v>
@@ -2861,7 +2874,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="51"/>
       <c r="B14" s="17" t="s">
         <v>220</v>
@@ -2876,7 +2889,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
       <c r="B15" s="17" t="s">
         <v>233</v>
@@ -2894,7 +2907,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="51"/>
       <c r="B16" s="17" t="s">
         <v>229</v>
@@ -2909,7 +2922,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="51"/>
       <c r="B17" s="17" t="s">
         <v>227</v>
@@ -2924,7 +2937,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="51"/>
       <c r="B18" s="17" t="s">
         <v>228</v>
@@ -2939,7 +2952,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>253</v>
       </c>
@@ -2956,7 +2969,7 @@
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
         <v>176</v>
       </c>
@@ -2973,7 +2986,7 @@
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="50"/>
       <c r="B21" s="16" t="s">
         <v>239</v>
@@ -2986,7 +2999,7 @@
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="49"/>
       <c r="B22" s="29" t="s">
         <v>197</v>
@@ -3002,7 +3015,7 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="49"/>
       <c r="B23" s="29" t="s">
         <v>208</v>
@@ -3018,7 +3031,7 @@
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="49"/>
       <c r="B24" s="29" t="s">
         <v>198</v>
@@ -3034,7 +3047,7 @@
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="49"/>
       <c r="B25" s="29" t="s">
         <v>219</v>
@@ -3050,7 +3063,7 @@
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="49"/>
       <c r="B26" s="29" t="s">
         <v>223</v>
@@ -3068,7 +3081,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="49"/>
       <c r="B27" s="29" t="s">
         <v>224</v>
@@ -3084,7 +3097,7 @@
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="49"/>
       <c r="B28" s="22" t="s">
         <v>217</v>
@@ -3102,7 +3115,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="49"/>
       <c r="B29" s="22" t="s">
         <v>244</v>
@@ -3118,14 +3131,14 @@
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="49"/>
       <c r="B30" s="22" t="s">
         <v>250</v>
       </c>
       <c r="C30" s="31">
         <f>C5/C8*1000*3600/C10/C11*C12/1000</f>
-        <v>2053.375196232339</v>
+        <v>2072.2135007849292</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27" t="s">
@@ -3134,7 +3147,7 @@
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>177</v>
       </c>
@@ -3154,14 +3167,14 @@
       </c>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="48"/>
       <c r="B32" s="19" t="s">
         <v>216</v>
       </c>
       <c r="C32" s="33">
         <f>-C30</f>
-        <v>-2053.375196232339</v>
+        <v>-2072.2135007849292</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="26" t="s">
@@ -3172,7 +3185,7 @@
       </c>
       <c r="G32" s="20"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="48"/>
       <c r="B33" s="19" t="s">
         <v>251</v>
@@ -3190,7 +3203,7 @@
       </c>
       <c r="G33" s="20"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="48"/>
       <c r="B34" s="19" t="s">
         <v>215</v>
@@ -3208,7 +3221,7 @@
       </c>
       <c r="G34" s="20"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="48"/>
       <c r="B35" s="19" t="s">
         <v>211</v>
@@ -3226,23 +3239,23 @@
       </c>
       <c r="G35" s="20"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38" s="28" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>59/90</f>
         <v>0.65555555555555556</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" s="28" t="s">
         <v>234</v>
       </c>
@@ -3250,7 +3263,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>236</v>
       </c>
@@ -3258,7 +3271,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>237</v>
       </c>
@@ -3266,7 +3279,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>238</v>
       </c>

--- a/CVX_Kenya/Interventions/Biomass_ongrid.xlsx
+++ b/CVX_Kenya/Interventions/Biomass_ongrid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81FD5D9-F894-46B7-BC4A-2D4A02E03CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DA7939-31DB-45A8-8D50-8C98131A7844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="265">
   <si>
     <t>level_row</t>
   </si>
@@ -621,9 +621,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Agreggated</t>
   </si>
   <si>
     <t>Sensitivity</t>
@@ -1536,13 +1533,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C2" t="s">
         <v>122</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E2" s="32">
         <f>main!C35</f>
@@ -1596,16 +1593,16 @@
         <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1661,7 +1658,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1700,16 +1697,16 @@
         <v>191</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1739,7 +1736,7 @@
         <v>192</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J2" s="1">
         <v>-2015.6985871271584</v>
@@ -1831,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1864,19 +1861,19 @@
         <v>8</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1969,7 +1966,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2">
         <f>[1]main!C16</f>
@@ -2642,8 +2639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2668,7 +2665,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>173</v>
@@ -2683,14 +2680,14 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
       <c r="B2" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2" s="24">
         <v>10000</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -2698,7 +2695,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="51"/>
       <c r="B3" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="43">
         <f>C20</f>
@@ -2706,24 +2703,24 @@
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="51"/>
       <c r="B4" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="24">
         <v>500</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -2731,24 +2728,24 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="51"/>
       <c r="B5" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C5" s="24">
         <v>80</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
       <c r="B6" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" s="38">
         <f>0.27</f>
@@ -2756,34 +2753,34 @@
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="51"/>
       <c r="B7" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7" s="38">
         <v>2110</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="51"/>
       <c r="B8" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="24">
         <v>0.4</v>
@@ -2796,14 +2793,14 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="51"/>
       <c r="B9" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" s="24">
         <v>106.3</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -2822,7 +2819,7 @@
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2839,7 +2836,7 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2851,7 +2848,7 @@
         <v>0.11</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>183</v>
@@ -2862,14 +2859,14 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="51"/>
       <c r="B13" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C13" s="24">
         <v>25</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
@@ -2877,7 +2874,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="51"/>
       <c r="B14" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="24">
         <v>0.3</v>
@@ -2886,13 +2883,13 @@
       <c r="E14" s="24"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
       <c r="B15" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C15" s="24">
         <f>C19*(C43+C44+C45)*12/(10^6)</f>
@@ -2904,20 +2901,20 @@
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="51"/>
       <c r="B16" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C16" s="24">
         <v>250</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
@@ -2925,14 +2922,14 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="51"/>
       <c r="B17" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C17" s="34">
         <v>250000</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -2940,31 +2937,31 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="51"/>
       <c r="B18" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C18" s="24">
         <v>1</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C19" s="46">
         <v>17</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
@@ -2974,14 +2971,14 @@
         <v>176</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C20" s="41">
         <v>0</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -2989,7 +2986,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="50"/>
       <c r="B21" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C21" s="37">
         <v>0.3</v>
@@ -3002,7 +2999,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="49"/>
       <c r="B22" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" s="27">
         <f>C2*C16*C19*C9/(10^6)</f>
@@ -3018,7 +3015,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="49"/>
       <c r="B23" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C23" s="27">
         <f>C20*C17*C19*C9/(10^6)</f>
@@ -3034,7 +3031,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="49"/>
       <c r="B24" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C24" s="27">
         <f>C4*C18*C19*1000*C9/(10^6)</f>
@@ -3050,7 +3047,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="49"/>
       <c r="B25" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C25" s="31">
         <f>C28*C14</f>
@@ -3058,7 +3055,7 @@
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
@@ -3066,7 +3063,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="49"/>
       <c r="B26" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C26" s="27">
         <f>500*C9/1000</f>
@@ -3074,17 +3071,17 @@
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="49"/>
       <c r="B27" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C27" s="27">
         <f>C26*C25/1000</f>
@@ -3100,7 +3097,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="49"/>
       <c r="B28" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C28" s="31">
         <f>C5/0.45/10/200*10^6</f>
@@ -3108,17 +3105,17 @@
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="49"/>
       <c r="B29" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C29" s="31">
         <f>C5*C6/C8</f>
@@ -3126,7 +3123,7 @@
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
@@ -3134,7 +3131,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="49"/>
       <c r="B30" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C30" s="31">
         <f>C5/C8*1000*3600/C10/C11*C12/1000</f>
@@ -3152,7 +3149,7 @@
         <v>177</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C31" s="33">
         <f>SUM(C22:C24)</f>
@@ -3170,7 +3167,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="48"/>
       <c r="B32" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C32" s="33">
         <f>-C30</f>
@@ -3181,14 +3178,14 @@
         <v>188</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="48"/>
       <c r="B33" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C33" s="33">
         <f>-C27</f>
@@ -3199,14 +3196,14 @@
         <v>188</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="48"/>
       <c r="B34" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C34" s="30">
         <f>C31/C13</f>
@@ -3224,7 +3221,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="48"/>
       <c r="B35" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C35" s="42">
         <f>-C29/C7</f>
@@ -3232,7 +3229,7 @@
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F35" s="20" t="s">
         <v>187</v>
@@ -3241,7 +3238,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -3257,15 +3254,15 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" t="s">
         <v>234</v>
-      </c>
-      <c r="C42" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43">
         <v>75000</v>
@@ -3273,7 +3270,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C44">
         <v>50000</v>
@@ -3281,7 +3278,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C45">
         <v>50000</v>

--- a/CVX_Kenya/Interventions/Biomass_ongrid.xlsx
+++ b/CVX_Kenya/Interventions/Biomass_ongrid.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DA7939-31DB-45A8-8D50-8C98131A7844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DF299D-2552-431D-A527-88C47A01E61F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -1504,17 +1504,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="38.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1546,16 +1546,16 @@
         <v>-2.5592417061611375E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1576,16 +1576,16 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1620,20 +1620,20 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1657,24 +1657,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>26.373626373626347</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1779,12 +1779,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
@@ -1828,23 +1828,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="8" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1903,16 +1903,16 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1954,17 +1954,17 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -1986,14 +1986,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -2545,87 +2545,87 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -2643,18 +2643,18 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
-    <col min="2" max="2" width="62.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>171</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="51"/>
       <c r="B2" s="17" t="s">
         <v>199</v>
@@ -2692,7 +2692,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="17" t="s">
         <v>200</v>
@@ -2710,7 +2710,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="17" t="s">
         <v>201</v>
@@ -2725,7 +2725,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="35" t="s">
         <v>247</v>
@@ -2742,7 +2742,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="35" t="s">
         <v>240</v>
@@ -2760,7 +2760,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="35" t="s">
         <v>255</v>
@@ -2777,7 +2777,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="17" t="s">
         <v>205</v>
@@ -2790,7 +2790,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="17" t="s">
         <v>208</v>
@@ -2805,7 +2805,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="17" t="s">
         <v>179</v>
@@ -2822,7 +2822,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
       <c r="B11" s="17" t="s">
         <v>181</v>
@@ -2839,7 +2839,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="51"/>
       <c r="B12" s="17" t="s">
         <v>182</v>
@@ -2856,7 +2856,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="51"/>
       <c r="B13" s="17" t="s">
         <v>211</v>
@@ -2871,7 +2871,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="51"/>
       <c r="B14" s="17" t="s">
         <v>219</v>
@@ -2886,7 +2886,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="17" t="s">
         <v>232</v>
@@ -2904,7 +2904,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="51"/>
       <c r="B16" s="17" t="s">
         <v>228</v>
@@ -2919,7 +2919,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="51"/>
       <c r="B17" s="17" t="s">
         <v>226</v>
@@ -2934,7 +2934,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="51"/>
       <c r="B18" s="17" t="s">
         <v>227</v>
@@ -2949,7 +2949,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>252</v>
       </c>
@@ -2966,7 +2966,7 @@
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
         <v>176</v>
       </c>
@@ -2983,7 +2983,7 @@
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="50"/>
       <c r="B21" s="16" t="s">
         <v>238</v>
@@ -2996,7 +2996,7 @@
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="49"/>
       <c r="B22" s="29" t="s">
         <v>196</v>
@@ -3012,7 +3012,7 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="49"/>
       <c r="B23" s="29" t="s">
         <v>207</v>
@@ -3028,7 +3028,7 @@
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="49"/>
       <c r="B24" s="29" t="s">
         <v>197</v>
@@ -3044,7 +3044,7 @@
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="49"/>
       <c r="B25" s="29" t="s">
         <v>218</v>
@@ -3060,7 +3060,7 @@
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="49"/>
       <c r="B26" s="29" t="s">
         <v>222</v>
@@ -3078,7 +3078,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="49"/>
       <c r="B27" s="29" t="s">
         <v>223</v>
@@ -3094,7 +3094,7 @@
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
       <c r="B28" s="22" t="s">
         <v>216</v>
@@ -3112,7 +3112,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
       <c r="B29" s="22" t="s">
         <v>243</v>
@@ -3128,7 +3128,7 @@
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="22" t="s">
         <v>249</v>
@@ -3144,7 +3144,7 @@
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>177</v>
       </c>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="19" t="s">
         <v>215</v>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="G32" s="20"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="19" t="s">
         <v>250</v>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="G33" s="20"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="19" t="s">
         <v>214</v>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="G34" s="20"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="19" t="s">
         <v>210</v>
@@ -3236,23 +3236,23 @@
       </c>
       <c r="G35" s="20"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="28" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>59/90</f>
         <v>0.65555555555555556</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="28" t="s">
         <v>233</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>235</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>236</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>237</v>
       </c>

--- a/CVX_Kenya/Interventions/Biomass_ongrid.xlsx
+++ b/CVX_Kenya/Interventions/Biomass_ongrid.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DF299D-2552-431D-A527-88C47A01E61F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBE5AF7-0F66-4470-BC20-C342C310C653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -843,8 +843,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1046,7 +1047,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1150,6 +1151,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1504,17 +1508,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="38.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1528,7 +1532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1541,21 +1545,21 @@
       <c r="D2" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="52">
         <f>main!C35</f>
         <v>-2.5592417061611375E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1576,16 +1580,16 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1605,7 +1609,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1620,20 +1624,20 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1657,24 +1661,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1709,7 +1713,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1749,7 +1753,7 @@
         <v>26.373626373626347</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1779,12 +1783,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
@@ -1829,22 +1833,22 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="8" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1876,7 +1880,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1903,16 +1907,16 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1954,17 +1958,17 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -1986,14 +1990,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -2005,7 +2009,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2016,7 +2020,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2027,7 +2031,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2038,7 +2042,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2049,7 +2053,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2060,7 +2064,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2071,7 +2075,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2082,7 +2086,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2093,7 +2097,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2104,7 +2108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2115,7 +2119,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2126,7 +2130,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2137,7 +2141,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2148,7 +2152,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2159,7 +2163,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2170,7 +2174,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2181,7 +2185,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2192,7 +2196,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2203,7 +2207,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2214,7 +2218,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2225,7 +2229,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2236,7 +2240,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2247,7 +2251,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2258,7 +2262,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2269,7 +2273,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2280,7 +2284,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2291,7 +2295,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2302,7 +2306,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2313,7 +2317,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2324,7 +2328,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2335,7 +2339,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2346,7 +2350,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2357,7 +2361,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2368,7 +2372,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2379,7 +2383,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -2390,7 +2394,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -2401,7 +2405,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -2409,7 +2413,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -2417,7 +2421,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -2425,7 +2429,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -2433,7 +2437,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -2441,7 +2445,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -2449,7 +2453,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -2457,7 +2461,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -2465,7 +2469,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -2473,7 +2477,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -2481,7 +2485,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -2489,7 +2493,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -2497,7 +2501,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -2505,7 +2509,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -2513,7 +2517,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -2521,7 +2525,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -2529,7 +2533,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -2537,7 +2541,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -2545,87 +2549,87 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -2639,22 +2643,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>171</v>
       </c>
@@ -2677,7 +2681,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
       <c r="B2" s="17" t="s">
         <v>199</v>
@@ -2692,7 +2696,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="51"/>
       <c r="B3" s="17" t="s">
         <v>200</v>
@@ -2710,7 +2714,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="51"/>
       <c r="B4" s="17" t="s">
         <v>201</v>
@@ -2725,12 +2729,13 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="51"/>
       <c r="B5" s="35" t="s">
         <v>247</v>
       </c>
       <c r="C5" s="24">
+        <f>17/17*80</f>
         <v>80</v>
       </c>
       <c r="D5" s="24"/>
@@ -2742,7 +2747,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
       <c r="B6" s="35" t="s">
         <v>240</v>
@@ -2760,7 +2765,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="51"/>
       <c r="B7" s="35" t="s">
         <v>255</v>
@@ -2777,7 +2782,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="51"/>
       <c r="B8" s="17" t="s">
         <v>205</v>
@@ -2790,7 +2795,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="51"/>
       <c r="B9" s="17" t="s">
         <v>208</v>
@@ -2805,7 +2810,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="51"/>
       <c r="B10" s="17" t="s">
         <v>179</v>
@@ -2822,7 +2827,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="51"/>
       <c r="B11" s="17" t="s">
         <v>181</v>
@@ -2839,7 +2844,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="51"/>
       <c r="B12" s="17" t="s">
         <v>182</v>
@@ -2856,7 +2861,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="51"/>
       <c r="B13" s="17" t="s">
         <v>211</v>
@@ -2871,7 +2876,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="51"/>
       <c r="B14" s="17" t="s">
         <v>219</v>
@@ -2886,7 +2891,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
       <c r="B15" s="17" t="s">
         <v>232</v>
@@ -2904,7 +2909,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="51"/>
       <c r="B16" s="17" t="s">
         <v>228</v>
@@ -2919,7 +2924,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="51"/>
       <c r="B17" s="17" t="s">
         <v>226</v>
@@ -2934,7 +2939,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="51"/>
       <c r="B18" s="17" t="s">
         <v>227</v>
@@ -2949,7 +2954,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>252</v>
       </c>
@@ -2966,7 +2971,7 @@
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
         <v>176</v>
       </c>
@@ -2983,7 +2988,7 @@
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="50"/>
       <c r="B21" s="16" t="s">
         <v>238</v>
@@ -2996,7 +3001,7 @@
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="49"/>
       <c r="B22" s="29" t="s">
         <v>196</v>
@@ -3012,7 +3017,7 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="49"/>
       <c r="B23" s="29" t="s">
         <v>207</v>
@@ -3028,7 +3033,7 @@
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="49"/>
       <c r="B24" s="29" t="s">
         <v>197</v>
@@ -3044,7 +3049,7 @@
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="49"/>
       <c r="B25" s="29" t="s">
         <v>218</v>
@@ -3060,7 +3065,7 @@
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="49"/>
       <c r="B26" s="29" t="s">
         <v>222</v>
@@ -3078,7 +3083,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="49"/>
       <c r="B27" s="29" t="s">
         <v>223</v>
@@ -3094,7 +3099,7 @@
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="49"/>
       <c r="B28" s="22" t="s">
         <v>216</v>
@@ -3112,7 +3117,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="49"/>
       <c r="B29" s="22" t="s">
         <v>243</v>
@@ -3128,7 +3133,7 @@
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="49"/>
       <c r="B30" s="22" t="s">
         <v>249</v>
@@ -3144,7 +3149,7 @@
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>177</v>
       </c>
@@ -3164,7 +3169,7 @@
       </c>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="48"/>
       <c r="B32" s="19" t="s">
         <v>215</v>
@@ -3182,7 +3187,7 @@
       </c>
       <c r="G32" s="20"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="48"/>
       <c r="B33" s="19" t="s">
         <v>250</v>
@@ -3200,7 +3205,7 @@
       </c>
       <c r="G33" s="20"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="48"/>
       <c r="B34" s="19" t="s">
         <v>214</v>
@@ -3218,7 +3223,7 @@
       </c>
       <c r="G34" s="20"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="48"/>
       <c r="B35" s="19" t="s">
         <v>210</v>
@@ -3236,23 +3241,23 @@
       </c>
       <c r="G35" s="20"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38" s="28" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>59/90</f>
         <v>0.65555555555555556</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" s="28" t="s">
         <v>233</v>
       </c>
@@ -3260,7 +3265,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>235</v>
       </c>
@@ -3268,7 +3273,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>236</v>
       </c>
@@ -3276,7 +3281,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>237</v>
       </c>
